--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+  <si>
+    <t>item</t>
+  </si>
   <si>
     <t>action</t>
   </si>
@@ -44,6 +47,21 @@
     <t>notes</t>
   </si>
   <si>
+    <t xml:space="preserve">casbin rule request match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casbin rule policy p.perm match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casbin rule r.entity_id match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casbin rule policy p.item match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casbin rule function match</t>
+  </si>
+  <si>
     <t>(r)products</t>
   </si>
   <si>
@@ -59,6 +77,15 @@
     <t>products</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "c")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.perm == "w"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(p.item == "products" || p.item =="all")</t>
+  </si>
+  <si>
     <t>{id}</t>
   </si>
   <si>
@@ -71,12 +98,24 @@
     <t>r</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.perm == "r"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+  </si>
+  <si>
     <t>U</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "u")</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -86,28 +125,73 @@
     <t>!matchProductHasStorages({id})</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "d")</t>
+  </si>
+  <si>
     <t>storages</t>
   </si>
   <si>
     <t xml:space="preserve">{void} but {entity_id} only possible value</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO: we should check the entity_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "c")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(p.item == "storages" || p.item =="all")</t>
+  </si>
+  <si>
     <t xml:space="preserve">storages filtered in select by user entity_id</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
+  </si>
+  <si>
     <t>matchPersonAndStorageAreInEntity({p.entity_id})</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+  </si>
+  <si>
+    <t>matchPersonAndStorageAreInEntity({r.person_id},{r.item_id},{p.entity_id})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "u")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "d")</t>
+  </si>
+  <si>
     <t>store_locations</t>
   </si>
   <si>
     <t>entities</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "c")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(p.item == "entities" || p.item =="all")</t>
+  </si>
+  <si>
     <t xml:space="preserve">store locations filtered in select by user entity_id</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
+  </si>
+  <si>
     <t>matchPersonAndStoreLocationAreInEntity({p.entity_id})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+  </si>
+  <si>
+    <t>matchPersonAndStoreLocationAreInEntity({r.person_id},{r.item_id},{p.entity_id})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "u")</t>
   </si>
   <si>
     <t xml:space="preserve">matchPersonAndStoreLocationAreInEntity({p.entity_id})
@@ -115,13 +199,36 @@
 &amp;&amp; !matchStoreLocationHasStorages</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "d")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matchPersonAndStoreLocationAreInEntity({r.person_id},{r.item_id},{p.entity_id})
+&amp;&amp; !matchStoreLocationHasChildren({r.item_id})
+&amp;&amp; !matchStoreLocationHasStorages({r.item_id})</t>
+  </si>
+  <si>
     <t>people</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "c")</t>
+  </si>
+  <si>
     <t xml:space="preserve">people filtered in select by user entity_id</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
+  </si>
+  <si>
     <t>matchPersonAndPersonAreInEntity({p.entity_id})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+  </si>
+  <si>
+    <t>matchPersonAndPersonAreInEntity({p.entity_id},{r.item_id})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "u")</t>
   </si>
   <si>
     <t xml:space="preserve">matchPersonAndPersonAreInEntity({p.entity_id})
@@ -129,26 +236,85 @@
 &amp;&amp; !matchPersonIsadmin({id})</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "d")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matchPersonAndPersonAreInEntity({p.entity_id},{r.item_id})
+&amp;&amp; !matchPersonIsManager({r.item_id})
+&amp;&amp; !matchPersonIsadmin({r.item_id})</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "c")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.entity_id == -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.item == all</t>
+  </si>
+  <si>
     <t xml:space="preserve">entities filtered in select by user entity_id</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
+  </si>
+  <si>
     <t>{entity_id}</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r.item_id == p.entity_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "u")</t>
+  </si>
+  <si>
     <t xml:space="preserve">!matchEntityHasMembers({id}) &amp;&amp; !matchEntityHasStoreLocations({id})</t>
   </si>
   <si>
+    <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "d")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!matchEntityHasMembers({r.item_id}) &amp;&amp; !matchEntityHasStoreLocations({r.item_id})</t>
+  </si>
+  <si>
+    <t>bookmarks/download/validate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == bookmarks" || r.item == "download" || r.item == "validate")</t>
+  </si>
+  <si>
+    <t>userinfo/ping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "userinfo" || r.item == "ping")</t>
+  </si>
+  <si>
     <t xml:space="preserve">not relevant or not used</t>
+  </si>
+  <si>
+    <t>[request_definition]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r = person_id, action, item, item_id</t>
+  </si>
+  <si>
+    <t>[policy_definition]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p = person_id, perm, item, entity_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -158,6 +324,13 @@
     <font>
       <sz val="11.000000"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -198,39 +371,32 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,13 +896,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="21.421875"/>
+    <col customWidth="1" min="1" max="1" width="41.7109375"/>
     <col bestFit="1" min="2" max="2" width="6.00390625"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="11.7109375"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="9.421875"/>
@@ -745,820 +911,1130 @@
     <col bestFit="1" customWidth="1" min="7" max="7" width="35.28125"/>
     <col bestFit="1" customWidth="1" min="8" max="8" width="62.28125"/>
     <col bestFit="1" min="9" max="9" width="41.7109375"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="55.140625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="26.140625"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="23.7109375"/>
+    <col customWidth="1" min="13" max="13" width="37.421875"/>
+    <col customWidth="1" min="14" max="14" width="76.421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="14.25">
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>-1</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="14.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G7" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="14.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G9">
         <v>-1</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" ht="14.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="7" customFormat="1" ht="14.25">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="14.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="14.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="14.25">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="14.25">
+      <c r="A14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="14.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" s="0" customFormat="1" ht="14.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="14.25">
-      <c r="A16" s="7" t="s">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" ht="14.25">
+      <c r="A18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="14.25">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" s="0" customFormat="1" ht="14.25">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" s="10" customFormat="1" ht="14.25">
-      <c r="A18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="14.25">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20"/>
+        <v>23</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="9" t="s">
-        <v>28</v>
+      <c r="L20" s="2"/>
+      <c r="M20" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="13" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" ht="14.25">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="14.25">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="14.25">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="14.25">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="25" ht="42.75">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" ht="14.25">
+      <c r="A26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" ht="14.25">
+      <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G25" t="s">
+      <c r="L28" s="2"/>
+      <c r="M28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="C29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" ht="14.25">
+      <c r="A30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="14.25">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="14.25">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="14.25">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="M30" s="4"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="14.25">
+      <c r="A32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="14.25">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" ht="42.75">
+      <c r="A33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" ht="42.75">
-      <c r="A33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="L33" s="2"/>
+      <c r="M33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" s="7" customFormat="1" ht="14.25">
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="8">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="J34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="1" ht="14.25">
-      <c r="A34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="10">
-        <v>-1</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="14.25">
+      <c r="L34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="14.25">
       <c r="A35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="14.25">
+      <c r="L37" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" ht="14.25">
       <c r="A38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="14.25">
+      <c r="F39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" ht="14.25">
       <c r="A40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1567,33 +2043,103 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G41" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>38</v>
+      <c r="L41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="14.25">
+      <c r="A42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="3" t="s">
-        <v>39</v>
+      <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25">
+      <c r="A51" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>item</t>
   </si>
@@ -128,6 +128,9 @@
     <t xml:space="preserve">(r.item == "products" &amp;&amp; r.action == "d")</t>
   </si>
   <si>
+    <t>!matchProductHasStorages(r.item_id)</t>
+  </si>
+  <si>
     <t>storages</t>
   </si>
   <si>
@@ -155,7 +158,7 @@
     <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
   </si>
   <si>
-    <t>matchPersonAndStorageAreInEntity({r.person_id},{r.item_id},{p.entity_id})</t>
+    <t>matchPersonAndStorageAreInEntity(r.person_id,r.item_id,p.entity_id)</t>
   </si>
   <si>
     <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "u")</t>
@@ -188,7 +191,7 @@
     <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
   </si>
   <si>
-    <t>matchPersonAndStoreLocationAreInEntity({r.person_id},{r.item_id},{p.entity_id})</t>
+    <t>matchPersonAndStoreLocationAreInEntity(r.person_id,r.item_id,p.entity_id)</t>
   </si>
   <si>
     <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "u")</t>
@@ -202,9 +205,9 @@
     <t xml:space="preserve">(r.item == "store_locations" &amp;&amp; r.action == "d")</t>
   </si>
   <si>
-    <t xml:space="preserve">matchPersonAndStoreLocationAreInEntity({r.person_id},{r.item_id},{p.entity_id})
-&amp;&amp; !matchStoreLocationHasChildren({r.item_id})
-&amp;&amp; !matchStoreLocationHasStorages({r.item_id})</t>
+    <t xml:space="preserve">matchPersonAndStoreLocationAreInEntity(r.person_id,r.item_id,p.entity_id)
+&amp;&amp; !matchStoreLocationHasChildren(r.item_id)
+&amp;&amp; !matchStoreLocationHasStorages(r.item_id)</t>
   </si>
   <si>
     <t>people</t>
@@ -225,7 +228,7 @@
     <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
   </si>
   <si>
-    <t>matchPersonAndPersonAreInEntity({p.entity_id},{r.item_id})</t>
+    <t>matchPersonAndPersonAreInEntity(p.entity_id,r.item_id)</t>
   </si>
   <si>
     <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "u")</t>
@@ -233,15 +236,15 @@
   <si>
     <t xml:space="preserve">matchPersonAndPersonAreInEntity({p.entity_id})
 &amp;&amp; !matchPersonIsManager({id})
-&amp;&amp; !matchPersonIsadmin({id})</t>
+&amp;&amp; !matchPersonIsAdmin({id})</t>
   </si>
   <si>
     <t xml:space="preserve">(r.item == "people" &amp;&amp; r.action == "d")</t>
   </si>
   <si>
-    <t xml:space="preserve">matchPersonAndPersonAreInEntity({p.entity_id},{r.item_id})
-&amp;&amp; !matchPersonIsManager({r.item_id})
-&amp;&amp; !matchPersonIsadmin({r.item_id})</t>
+    <t xml:space="preserve">matchPersonAndPersonAreInEntity(p.entity_id,r.item_id)
+&amp;&amp; !matchPersonIsManager(r.item_id)
+&amp;&amp; !matchPersonIsAdmin(r.item_id)</t>
   </si>
   <si>
     <t>all</t>
@@ -280,13 +283,13 @@
     <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "d")</t>
   </si>
   <si>
-    <t xml:space="preserve">!matchEntityHasMembers({r.item_id}) &amp;&amp; !matchEntityHasStoreLocations({r.item_id})</t>
+    <t xml:space="preserve">!matchEntityHasMembers(r.item_id) &amp;&amp; !matchEntityHasStoreLocations(r.item_id)</t>
   </si>
   <si>
     <t>bookmarks/download/validate</t>
   </si>
   <si>
-    <t xml:space="preserve">(r.item == bookmarks" || r.item == "download" || r.item == "validate")</t>
+    <t xml:space="preserve">(r.item == "bookmarks" || r.item == "download" || r.item == "validate")</t>
   </si>
   <si>
     <t>userinfo/ping</t>
@@ -377,7 +380,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -385,6 +387,7 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
@@ -937,7 +940,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -949,10 +952,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -992,17 +995,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1053,7 +1056,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="2">
@@ -1070,14 +1073,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="14.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1097,7 +1100,7 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="2">
@@ -1114,21 +1117,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="3" customFormat="1" ht="14.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
@@ -1146,7 +1149,7 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G9">
@@ -1165,10 +1168,13 @@
       <c r="M9" t="s">
         <v>21</v>
       </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" s="7" customFormat="1" ht="14.25">
       <c r="A10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>15</v>
@@ -1181,47 +1187,47 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="14.25">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="14.25">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
+      <c r="A12" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -1233,33 +1239,33 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="5" t="s">
-        <v>40</v>
+      <c r="M12" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
+      <c r="A13" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1269,51 +1275,51 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="14.25">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="M13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
+      <c r="A15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1322,51 +1328,51 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>36</v>
+      <c r="F15" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="5" t="s">
-        <v>40</v>
+      <c r="M15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" ht="14.25">
-      <c r="A16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" s="0" customFormat="1" ht="14.25">
-      <c r="A17" s="5" t="s">
-        <v>36</v>
+      <c r="A17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
@@ -1375,32 +1381,32 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>36</v>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>45</v>
+      <c r="M17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" s="7" customFormat="1" ht="14.25">
       <c r="A18" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -1413,46 +1419,46 @@
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" s="4" customFormat="1" ht="14.25">
-      <c r="A19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="14.25">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="4"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1464,34 +1470,34 @@
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="5" t="s">
-        <v>51</v>
+      <c r="M20" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1501,52 +1507,52 @@
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" s="4" customFormat="1" ht="14.25">
-      <c r="A22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="M21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="14.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1556,52 +1562,52 @@
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" ht="14.25">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="M23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="14.25">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" ht="42.75">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
@@ -1611,31 +1617,31 @@
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>60</v>
+      <c r="M25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" s="7" customFormat="1" ht="14.25">
       <c r="A26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>15</v>
@@ -1648,52 +1654,52 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" ht="14.25">
-      <c r="A27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="14.25">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
       <c r="D28" t="s">
         <v>24</v>
       </c>
@@ -1701,34 +1707,34 @@
         <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="5" t="s">
-        <v>51</v>
+      <c r="M28" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
@@ -1738,52 +1744,52 @@
         <v>25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L29" s="2"/>
-      <c r="M29" s="5" t="s">
-        <v>51</v>
+      <c r="M29" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" ht="14.25">
-      <c r="A30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="14.25">
+      <c r="A30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
@@ -1793,85 +1799,85 @@
         <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="2"/>
-      <c r="M31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" ht="14.25">
-      <c r="A32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="M31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="14.25">
+      <c r="A32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" ht="42.75">
-      <c r="A33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="5" t="s">
-        <v>51</v>
+      <c r="M33" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" s="7" customFormat="1" ht="14.25">
       <c r="A34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>15</v>
@@ -1881,68 +1887,68 @@
         <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G34" s="8">
         <v>-1</v>
       </c>
       <c r="H34" s="9"/>
       <c r="J34" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34" s="12" t="s">
+      <c r="L34" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="M34" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" s="4" customFormat="1" ht="14.25">
-      <c r="A35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="4" t="s">
+    <row r="35" s="3" customFormat="1" ht="14.25">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
       <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>27</v>
@@ -1951,56 +1957,56 @@
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" ht="14.25">
-      <c r="A38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="L37" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="14.25">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2009,82 +2015,82 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>78</v>
+      <c r="F39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" ht="14.25">
-      <c r="A40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="L39" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="14.25">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" s="7" customFormat="1" ht="14.25">
       <c r="A42" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2095,8 +2101,8 @@
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
-      <c r="J42" s="7" t="s">
-        <v>86</v>
+      <c r="J42" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>21</v>
@@ -2104,42 +2110,42 @@
     </row>
     <row r="43" ht="14.25">
       <c r="A43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="4" t="s">
-        <v>89</v>
+      <c r="A45" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47" ht="14.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" ht="14.25">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>item</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t xml:space="preserve">!matchEntityHasMembers(r.item_id) &amp;&amp; !matchEntityHasStoreLocations(r.item_id)</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{id} (of product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stocks filtered in select by user entity_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(r.item == "stocks" &amp;&amp; r.action == "r")</t>
   </si>
   <si>
     <t>bookmarks/download/validate</t>
@@ -374,7 +386,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,19 +399,16 @@
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -899,7 +908,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -907,7 +916,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="41.7109375"/>
     <col bestFit="1" min="2" max="2" width="6.00390625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11.7109375"/>
+    <col customWidth="1" min="3" max="3" width="18.00390625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="9.421875"/>
     <col bestFit="1" min="5" max="5" width="7.00390625"/>
     <col bestFit="1" min="6" max="6" width="8.421875"/>
@@ -1168,44 +1177,44 @@
       <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="14.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="6" customFormat="1" ht="14.25">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1293,7 +1302,7 @@
       <c r="M13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1400,44 +1409,44 @@
       <c r="M17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" ht="14.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" s="6" customFormat="1" ht="14.25">
+      <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8" t="s">
+      <c r="L18" s="6"/>
+      <c r="M18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1525,7 +1534,7 @@
       <c r="M21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1580,7 +1589,7 @@
       <c r="M23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1635,44 +1644,44 @@
       <c r="M25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" ht="14.25">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="6" customFormat="1" ht="14.25">
+      <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8" t="s">
+      <c r="L26" s="6"/>
+      <c r="M26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1762,7 +1771,7 @@
       <c r="M29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1817,7 +1826,7 @@
       <c r="M31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1858,7 +1867,7 @@
       <c r="G33" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -1871,44 +1880,44 @@
       <c r="M33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" ht="14.25">
-      <c r="A34" s="7" t="s">
+    <row r="34" s="6" customFormat="1" ht="14.25">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>-1</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="J34" s="7" t="s">
+      <c r="H34" s="8"/>
+      <c r="J34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="14.25">
       <c r="A35" s="3" t="s">
@@ -2046,6 +2055,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
@@ -2078,74 +2089,110 @@
       <c r="K41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" t="s">
         <v>75</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" t="s">
         <v>76</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" ht="14.25">
-      <c r="A42" s="7" t="s">
+    <row r="42" s="6" customFormat="1" ht="14.25">
+      <c r="A42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8" t="s">
+      <c r="B42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" s="6" customFormat="1" ht="14.25">
+      <c r="A43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="J42" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="M42" s="8" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="J43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="J43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" t="s">
-        <v>91</v>
+    <row r="44" ht="14.25">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
+      <c r="A52" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>item</t>
   </si>
@@ -253,6 +253,9 @@
     <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "c")</t>
   </si>
   <si>
+    <t xml:space="preserve">p.perm == "all"</t>
+  </si>
+  <si>
     <t xml:space="preserve">p.entity_id == -1</t>
   </si>
   <si>
@@ -271,7 +274,10 @@
     <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
   </si>
   <si>
-    <t xml:space="preserve">r.item_id == p.entity_id</t>
+    <t xml:space="preserve">r.item_id == p.entity_id || p.entity_id == "-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{entity_id} || -1</t>
   </si>
   <si>
     <t xml:space="preserve">(r.item == "entities" &amp;&amp; r.action == "u")</t>
@@ -404,11 +410,11 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,7 +914,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="J8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -925,7 +931,7 @@
     <col bestFit="1" min="9" max="9" width="41.7109375"/>
     <col bestFit="1" customWidth="1" min="10" max="10" width="55.140625"/>
     <col bestFit="1" customWidth="1" min="11" max="11" width="26.140625"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" width="23.7109375"/>
+    <col customWidth="1" min="12" max="12" width="42.421875"/>
     <col customWidth="1" min="13" max="13" width="37.421875"/>
     <col customWidth="1" min="14" max="14" width="76.421875"/>
   </cols>
@@ -1908,14 +1914,14 @@
       <c r="J34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>20</v>
+      <c r="K34" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N34" s="8"/>
     </row>
@@ -1954,15 +1960,18 @@
         <v>38</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L36" s="2"/>
+      <c r="M36" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
@@ -1984,16 +1993,19 @@
         <v>50</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="14.25">
@@ -2027,17 +2039,20 @@
       <c r="F39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>79</v>
+      <c r="G39" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>81</v>
+      <c r="L39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="14.25">
@@ -2055,8 +2070,8 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
@@ -2081,50 +2096,50 @@
         <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="L41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" s="6" customFormat="1" ht="14.25">
-      <c r="A42" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>89</v>
+      <c r="I42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>27</v>
@@ -2137,7 +2152,7 @@
     </row>
     <row r="43" s="6" customFormat="1" ht="14.25">
       <c r="A43" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2149,7 +2164,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>21</v>
@@ -2157,7 +2172,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2167,32 +2182,32 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -392,7 +392,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,7 +410,6 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -914,7 +913,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="J8" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="K8" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1485,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>38</v>
@@ -1501,8 +1500,8 @@
         <v>27</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="4" t="s">
-        <v>52</v>
+      <c r="M20" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" ht="14.25">
@@ -1521,8 +1520,8 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
+      <c r="F21" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>38</v>
@@ -1537,8 +1536,8 @@
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="4" t="s">
-        <v>52</v>
+      <c r="M21" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>57</v>
@@ -1914,7 +1913,7 @@
       <c r="J34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="6" t="s">
         <v>75</v>
       </c>
       <c r="L34" s="6" t="s">
@@ -2039,7 +2038,7 @@
       <c r="F39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="4" t="s">
         <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
@@ -2048,7 +2047,7 @@
       <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M39" s="4" t="s">
@@ -2101,7 +2100,7 @@
       <c r="J41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="K41" s="2" t="s">
         <v>75</v>
       </c>
       <c r="L41" t="s">

--- a/src/casbin.xlsx
+++ b/src/casbin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>item</t>
   </si>
@@ -152,10 +152,13 @@
     <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "r" &amp;&amp; r.item_id == "")</t>
   </si>
   <si>
+    <t xml:space="preserve">storages || borrows</t>
+  </si>
+  <si>
     <t>matchPersonAndStorageAreInEntity({p.entity_id})</t>
   </si>
   <si>
-    <t xml:space="preserve">(r.item == "storages" &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
+    <t xml:space="preserve">((r.item == "storages" || r.item == "borrows") &amp;&amp; r.action == "r" &amp;&amp; r.item_id != "")</t>
   </si>
   <si>
     <t>matchPersonAndStorageAreInEntity(r.person_id,r.item_id,p.entity_id)</t>
@@ -913,7 +916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="K8" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1273,8 +1276,8 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="4" t="s">
-        <v>37</v>
+      <c r="A13" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
@@ -1295,10 +1298,10 @@
         <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>27</v>
@@ -1308,7 +1311,7 @@
         <v>41</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="14.25">
@@ -1349,10 +1352,10 @@
         <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>20</v>
@@ -1362,7 +1365,7 @@
         <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="14.25">
@@ -1402,10 +1405,10 @@
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>20</v>
@@ -1415,12 +1418,12 @@
         <v>41</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="14.25">
       <c r="A18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1433,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>38</v>
@@ -1442,14 +1445,14 @@
         <v>39</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>39</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="19" s="3" customFormat="1" ht="14.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -1472,7 +1475,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1491,22 +1494,22 @@
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1520,32 +1523,32 @@
       <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="14.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="23" ht="14.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -1576,31 +1579,31 @@
         <v>17</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="14.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="25" ht="42.75">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1631,31 +1634,31 @@
         <v>17</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="14.25">
       <c r="A26" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>15</v>
@@ -1668,7 +1671,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>38</v>
@@ -1677,14 +1680,14 @@
         <v>39</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>39</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="27" s="3" customFormat="1" ht="14.25">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="28" ht="14.25">
       <c r="A28" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>23</v>
@@ -1721,29 +1724,29 @@
         <v>25</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>23</v>
@@ -1758,31 +1761,31 @@
         <v>25</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="14.25">
       <c r="A30" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="31" ht="14.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>29</v>
@@ -1813,31 +1816,31 @@
         <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="14.25">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="33" ht="42.75">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -1867,31 +1870,31 @@
         <v>17</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" s="6" customFormat="1" ht="14.25">
       <c r="A34" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>15</v>
@@ -1901,32 +1904,32 @@
         <v>16</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" s="7">
         <v>-1</v>
       </c>
       <c r="H34" s="8"/>
       <c r="J34" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N34" s="8"/>
     </row>
     <row r="35" s="3" customFormat="1" ht="14.25">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>15</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="36" ht="14.25">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>23</v>
@@ -1953,28 +1956,28 @@
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>23</v>
@@ -1989,27 +1992,27 @@
         <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="14.25">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -2021,7 +2024,7 @@
     </row>
     <row r="39" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>29</v>
@@ -2036,27 +2039,27 @@
         <v>17</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="14.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="41" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>32</v>
@@ -2086,42 +2089,42 @@
         <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" s="6" customFormat="1" ht="14.25">
       <c r="A42" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
@@ -2135,10 +2138,10 @@
       <c r="G42" s="7"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>27</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="43" s="6" customFormat="1" ht="14.25">
       <c r="A43" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2163,7 +2166,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="J43" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>21</v>
@@ -2171,7 +2174,7 @@
     </row>
     <row r="44" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2181,32 +2184,32 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="J44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="A46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" ht="14.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" ht="14.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" ht="14.25">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" ht="14.25">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
